--- a/phpprog/materiale magazzino/Materiale Magazzino.xlsx
+++ b/phpprog/materiale magazzino/Materiale Magazzino.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55ADE4-64EC-4CAC-85D5-B3EFCA93FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
   <si>
     <t xml:space="preserve">NOME </t>
   </si>
@@ -24,16 +33,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t>QUANTIT</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>À</t>
     </r>
@@ -190,9 +201,6 @@
   </si>
   <si>
     <t>5x1</t>
-  </si>
-  <si>
-    <t>Ondastop</t>
   </si>
   <si>
     <t>1"1/4</t>
@@ -528,27 +536,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -557,7 +579,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -567,38 +589,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -788,24 +815,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="A46:D46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.0"/>
-    <col customWidth="1" min="2" max="2" width="15.75"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -830,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -844,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -858,10 +890,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -872,10 +904,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,10 +918,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -900,10 +932,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -914,10 +946,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -928,10 +960,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -942,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -956,10 +988,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -970,10 +1002,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -984,10 +1016,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -998,10 +1030,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1012,10 +1044,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1026,10 +1058,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1040,10 +1072,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1054,10 +1086,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1068,10 +1100,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1082,10 +1114,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1096,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1110,10 +1142,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1124,10 +1156,10 @@
         <v>32</v>
       </c>
       <c r="D23" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1138,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1152,10 +1184,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1166,10 +1198,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1180,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="D27" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1194,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1208,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1222,10 +1254,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1236,10 +1268,10 @@
         <v>36</v>
       </c>
       <c r="D31" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1250,10 +1282,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1264,10 +1296,10 @@
         <v>39</v>
       </c>
       <c r="D33" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1278,10 +1310,10 @@
         <v>40</v>
       </c>
       <c r="D34" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1292,10 +1324,10 @@
         <v>41</v>
       </c>
       <c r="D35" s="2">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1306,10 +1338,10 @@
         <v>43</v>
       </c>
       <c r="D36" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -1320,10 +1352,10 @@
         <v>45</v>
       </c>
       <c r="D37" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1334,10 +1366,10 @@
         <v>46</v>
       </c>
       <c r="D38" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1348,10 +1380,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="2">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1362,10 +1394,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1376,10 +1408,10 @@
         <v>49</v>
       </c>
       <c r="D41" s="2">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1390,10 +1422,10 @@
         <v>50</v>
       </c>
       <c r="D42" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1404,10 +1436,10 @@
         <v>51</v>
       </c>
       <c r="D43" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -1418,10 +1450,10 @@
         <v>53</v>
       </c>
       <c r="D44" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1432,54 +1464,54 @@
         <v>54</v>
       </c>
       <c r="D45" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D46" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1488,12 +1520,12 @@
         <v>60</v>
       </c>
       <c r="D49" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -1502,12 +1534,12 @@
         <v>61</v>
       </c>
       <c r="D50" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1516,63 +1548,63 @@
         <v>62</v>
       </c>
       <c r="D51" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D55" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -1580,15 +1612,15 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
@@ -1597,66 +1629,66 @@
         <v>72</v>
       </c>
       <c r="D57" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D61" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -1664,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -1681,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="D63" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
@@ -1695,24 +1727,24 @@
         <v>39</v>
       </c>
       <c r="D64" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -1720,15 +1752,15 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D66" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -1737,12 +1769,12 @@
         <v>85</v>
       </c>
       <c r="D67" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -1751,12 +1783,12 @@
         <v>86</v>
       </c>
       <c r="D68" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
@@ -1765,12 +1797,12 @@
         <v>87</v>
       </c>
       <c r="D69" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
@@ -1779,12 +1811,12 @@
         <v>88</v>
       </c>
       <c r="D70" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -1793,26 +1825,26 @@
         <v>89</v>
       </c>
       <c r="D71" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
@@ -1821,24 +1853,24 @@
         <v>92</v>
       </c>
       <c r="D73" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D74" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -1846,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -1860,13 +1892,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -1877,52 +1909,52 @@
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>99</v>
       </c>
@@ -1933,10 +1965,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
@@ -1944,13 +1976,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
@@ -1961,38 +1993,38 @@
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>102</v>
       </c>
@@ -2000,27 +2032,27 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D87" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>105</v>
       </c>
@@ -2028,29 +2060,29 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D88" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D89" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -2059,12 +2091,12 @@
         <v>107</v>
       </c>
       <c r="D90" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -2073,12 +2105,12 @@
         <v>108</v>
       </c>
       <c r="D91" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -2087,68 +2119,68 @@
         <v>109</v>
       </c>
       <c r="D92" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D93" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D95" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D96" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -2157,24 +2189,24 @@
         <v>116</v>
       </c>
       <c r="D97" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D98" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>118</v>
       </c>
@@ -2182,13 +2214,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -2199,10 +2231,10 @@
         <v>32</v>
       </c>
       <c r="D100" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -2213,10 +2245,10 @@
         <v>32</v>
       </c>
       <c r="D101" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>121</v>
       </c>
@@ -2224,27 +2256,27 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D102" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D103" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>124</v>
       </c>
@@ -2252,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>125</v>
       </c>
@@ -2266,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D105" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>126</v>
       </c>
@@ -2280,13 +2312,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D106" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>127</v>
       </c>
@@ -2294,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>128</v>
       </c>
@@ -2308,27 +2340,27 @@
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D108" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -2339,10 +2371,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -2350,69 +2382,69 @@
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D111" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>114</v>
+      <c r="C112" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D112" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>114</v>
+      <c r="C113" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D113" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D115" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>139</v>
       </c>
@@ -2420,13 +2452,13 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -2434,15 +2466,15 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D117" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
@@ -2451,24 +2483,24 @@
         <v>142</v>
       </c>
       <c r="D118" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D119" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
@@ -2476,27 +2508,27 @@
         <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -2504,66 +2536,66 @@
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D124" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D125" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C126" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D126" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -2571,13 +2603,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>151</v>
       </c>
@@ -2585,13 +2617,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D128" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>152</v>
       </c>
@@ -2599,13 +2631,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D129" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>153</v>
       </c>
@@ -2613,13 +2645,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="D130" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>154</v>
       </c>
@@ -2630,10 +2662,10 @@
         <v>21</v>
       </c>
       <c r="D131" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>155</v>
       </c>
@@ -2641,13 +2673,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>156</v>
       </c>
@@ -2655,13 +2687,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D133" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>157</v>
       </c>
@@ -2672,38 +2704,38 @@
         <v>6</v>
       </c>
       <c r="D134" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D135" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D136" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>160</v>
       </c>
@@ -2714,10 +2746,10 @@
         <v>41</v>
       </c>
       <c r="D137" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>161</v>
       </c>
@@ -2725,41 +2757,28 @@
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D138" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="D139" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D140" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/phpprog/materiale magazzino/Materiale Magazzino.xlsx
+++ b/phpprog/materiale magazzino/Materiale Magazzino.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55ADE4-64EC-4CAC-85D5-B3EFCA93FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="166">
   <si>
     <t xml:space="preserve">NOME </t>
   </si>
@@ -33,18 +24,16 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>QUANTIT</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>À</t>
     </r>
@@ -201,6 +190,9 @@
   </si>
   <si>
     <t>5x1</t>
+  </si>
+  <si>
+    <t>Ondastop</t>
   </si>
   <si>
     <t>1"1/4</t>
@@ -536,41 +528,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -579,7 +557,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -589,43 +567,38 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -815,29 +788,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="A46:D46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="40.0"/>
+    <col customWidth="1" min="2" max="2" width="15.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -862,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -876,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -890,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -904,10 +872,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -918,10 +886,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -932,10 +900,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -946,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -960,10 +928,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -974,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -988,10 +956,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1002,10 +970,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1016,10 +984,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1030,10 +998,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,10 +1012,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1058,10 +1026,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1072,10 +1040,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1086,10 +1054,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1100,10 +1068,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1114,10 +1082,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1128,10 +1096,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1142,10 +1110,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1156,10 +1124,10 @@
         <v>32</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1170,10 +1138,10 @@
         <v>30</v>
       </c>
       <c r="D24" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1184,10 +1152,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1198,10 +1166,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1212,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="D27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1226,10 +1194,10 @@
         <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1240,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1254,10 +1222,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1268,10 +1236,10 @@
         <v>36</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1282,10 +1250,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1296,10 +1264,10 @@
         <v>39</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1310,10 +1278,10 @@
         <v>40</v>
       </c>
       <c r="D34" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1324,10 +1292,10 @@
         <v>41</v>
       </c>
       <c r="D35" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1338,10 +1306,10 @@
         <v>43</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -1352,10 +1320,10 @@
         <v>45</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1366,10 +1334,10 @@
         <v>46</v>
       </c>
       <c r="D38" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1380,10 +1348,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1394,10 +1362,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1408,10 +1376,10 @@
         <v>49</v>
       </c>
       <c r="D41" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1422,10 +1390,10 @@
         <v>50</v>
       </c>
       <c r="D42" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1436,10 +1404,10 @@
         <v>51</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -1450,10 +1418,10 @@
         <v>53</v>
       </c>
       <c r="D44" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1464,54 +1432,54 @@
         <v>54</v>
       </c>
       <c r="D45" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1520,12 +1488,12 @@
         <v>60</v>
       </c>
       <c r="D49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -1534,12 +1502,12 @@
         <v>61</v>
       </c>
       <c r="D50" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1548,63 +1516,63 @@
         <v>62</v>
       </c>
       <c r="D51" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D55" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -1612,15 +1580,15 @@
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D56" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
@@ -1629,66 +1597,66 @@
         <v>72</v>
       </c>
       <c r="D57" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -1696,13 +1664,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -1713,10 +1681,10 @@
         <v>39</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
@@ -1727,24 +1695,24 @@
         <v>39</v>
       </c>
       <c r="D64" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
@@ -1752,15 +1720,15 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -1769,12 +1737,12 @@
         <v>85</v>
       </c>
       <c r="D67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -1783,12 +1751,12 @@
         <v>86</v>
       </c>
       <c r="D68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
@@ -1797,12 +1765,12 @@
         <v>87</v>
       </c>
       <c r="D69" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
@@ -1811,12 +1779,12 @@
         <v>88</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -1825,26 +1793,26 @@
         <v>89</v>
       </c>
       <c r="D71" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D72" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
@@ -1853,24 +1821,24 @@
         <v>92</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -1878,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -1892,13 +1860,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -1909,52 +1877,52 @@
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="2" t="s">
         <v>99</v>
       </c>
@@ -1965,10 +1933,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
@@ -1976,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
@@ -1993,38 +1961,38 @@
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="2" t="s">
         <v>102</v>
       </c>
@@ -2032,27 +2000,27 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="2" t="s">
         <v>105</v>
       </c>
@@ -2060,29 +2028,29 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -2091,12 +2059,12 @@
         <v>107</v>
       </c>
       <c r="D90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -2105,12 +2073,12 @@
         <v>108</v>
       </c>
       <c r="D91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -2119,68 +2087,68 @@
         <v>109</v>
       </c>
       <c r="D92" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -2189,24 +2157,24 @@
         <v>116</v>
       </c>
       <c r="D97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D98" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="2" t="s">
         <v>118</v>
       </c>
@@ -2214,13 +2182,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="2" t="s">
         <v>119</v>
       </c>
@@ -2231,10 +2199,10 @@
         <v>32</v>
       </c>
       <c r="D100" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -2245,10 +2213,10 @@
         <v>32</v>
       </c>
       <c r="D101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="2" t="s">
         <v>121</v>
       </c>
@@ -2256,27 +2224,27 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D103" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="2" t="s">
         <v>124</v>
       </c>
@@ -2284,13 +2252,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D104" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="2" t="s">
         <v>125</v>
       </c>
@@ -2298,13 +2266,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" s="2" t="s">
         <v>126</v>
       </c>
@@ -2312,13 +2280,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D106" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="2" t="s">
         <v>127</v>
       </c>
@@ -2326,13 +2294,13 @@
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="2" t="s">
         <v>128</v>
       </c>
@@ -2340,27 +2308,27 @@
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D109" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -2371,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -2382,69 +2350,69 @@
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>113</v>
+      <c r="C112" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D112" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D115" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="2" t="s">
         <v>139</v>
       </c>
@@ -2452,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D116" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -2466,15 +2434,15 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
@@ -2483,24 +2451,24 @@
         <v>142</v>
       </c>
       <c r="D118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D119" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
@@ -2508,27 +2476,27 @@
         <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -2536,66 +2504,66 @@
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D125" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D126" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -2603,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="2" t="s">
         <v>151</v>
       </c>
@@ -2617,13 +2585,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D128" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="2" t="s">
         <v>152</v>
       </c>
@@ -2631,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="2" t="s">
         <v>153</v>
       </c>
@@ -2645,13 +2613,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="2" t="s">
         <v>154</v>
       </c>
@@ -2662,10 +2630,10 @@
         <v>21</v>
       </c>
       <c r="D131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="2" t="s">
         <v>155</v>
       </c>
@@ -2673,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="2" t="s">
         <v>156</v>
       </c>
@@ -2687,13 +2655,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="2" t="s">
         <v>157</v>
       </c>
@@ -2704,38 +2672,38 @@
         <v>6</v>
       </c>
       <c r="D134" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D135" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D136" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" s="2" t="s">
         <v>160</v>
       </c>
@@ -2746,10 +2714,10 @@
         <v>41</v>
       </c>
       <c r="D137" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="2" t="s">
         <v>161</v>
       </c>
@@ -2757,28 +2725,41 @@
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D138" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D139" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25"/>
+      <c r="C140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>